--- a/data/output/実行時間の計測/画像データ更新時/InverseDepth+共面条件.xlsx
+++ b/data/output/実行時間の計測/画像データ更新時/InverseDepth+共面条件.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagara\Dropbox\Keita Nagara\研究\00.プログラム\python\Spyder\SLAMwithCameraIMUforPython\data\output\実行時間の計測\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagara\Dropbox\Keita Nagara\研究\00.プログラム\python\Spyder\SLAMwithCameraIMUforPython\data\output\実行時間の計測\画像データ更新時\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23640" windowHeight="11325"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23640" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="InverseDepth+共面条件" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3541,5 +3541,6 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>